--- a/files/Matières/Emplois du temps/T/planning du 26 09 2020.xlsx
+++ b/files/Matières/Emplois du temps/T/planning du 26 09 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\Emplois du temps\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8290577-3E0F-4208-AAB6-87A49FE11000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF4A7CF-0E4A-4BAE-9EE8-7D34EE2CBED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38205" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -97,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,15 +328,6 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,32 +379,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -722,254 +764,254 @@
       <c r="B4" s="4">
         <v>0.375</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>0.40625</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>0.42708333333333298</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>0.44791666666666702</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>0.46875</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>0.48958333333333398</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="13" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>0.5</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -984,56 +1026,56 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>0.51041666666666696</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>0.52083333333333404</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>0.53125</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -1042,120 +1084,120 @@
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>0.55208333333333404</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>0.5625</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>0.57291666666666696</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <v>0.59375</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -1164,186 +1206,186 @@
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <v>0.61458333333333404</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="2:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>0.625</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>0.63541666666666696</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="9">
+      <c r="B31" s="6">
         <v>0.65625</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="9">
+      <c r="B32" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="9">
+      <c r="B33" s="6">
         <v>0.67708333333333404</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <v>0.687500000000001</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -1352,40 +1394,40 @@
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="9">
+      <c r="B35" s="6">
         <v>0.69791666666666696</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="9">
+      <c r="B36" s="6">
         <v>0.70833333333333404</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -1394,60 +1436,60 @@
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="9">
+      <c r="B37" s="6">
         <v>0.718750000000001</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="9">
+      <c r="B38" s="6">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="9">
+      <c r="B39" s="6">
         <v>0.73958333333333404</v>
       </c>
       <c r="C39" s="22" t="s">
@@ -1456,60 +1498,60 @@
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="9">
+      <c r="B40" s="6">
         <v>0.750000000000001</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <v>0.76041666666666696</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="9">
+      <c r="B42" s="6">
         <v>0.77083333333333404</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -1518,148 +1560,148 @@
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="9">
+      <c r="B43" s="6">
         <v>0.781250000000001</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="9">
+      <c r="B44" s="6">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="9">
+      <c r="B45" s="6">
         <v>0.80208333333333404</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <v>0.812500000000001</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="9">
+      <c r="B47" s="6">
         <v>0.82291666666666696</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="9">
+      <c r="B48" s="6">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="11:17" x14ac:dyDescent="0.45">
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
